--- a/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/040_Experimental/EUR_010_SwaptionAbcdAtmVolCurves.xlsx
+++ b/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/040_Experimental/EUR_010_SwaptionAbcdAtmVolCurves.xlsx
@@ -10,9 +10,6 @@
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
     <sheet name="AbcdCurves" sheetId="5" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Calendar">'General Settings'!$D$16</definedName>
     <definedName name="Convention">'General Settings'!$D$18</definedName>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
   <si>
     <t>Trigger</t>
   </si>
@@ -157,6 +154,9 @@
   <si>
     <t>EUR</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -165,7 +165,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -720,22 +720,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1032,7 +1016,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="9" customWidth="1"/>
     <col min="2" max="2" width="5.140625" style="9" customWidth="1"/>
@@ -1042,13 +1026,13 @@
     <col min="6" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="10" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" ht="15.75">
+    <row r="2" spans="1:33" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="47" t="s">
         <v>18</v>
       </c>
@@ -1056,7 +1040,7 @@
       <c r="D2" s="48"/>
       <c r="E2" s="49"/>
     </row>
-    <row r="3" spans="1:33" customFormat="1">
+    <row r="3" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -1091,7 +1075,7 @@
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="1:33" customFormat="1">
+    <row r="4" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="38" t="s">
@@ -1128,7 +1112,7 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" customFormat="1">
+    <row r="5" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="38" t="s">
@@ -1167,7 +1151,7 @@
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
     </row>
-    <row r="6" spans="1:33" customFormat="1">
+    <row r="6" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="38" t="s">
@@ -1206,7 +1190,7 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" customFormat="1">
+    <row r="7" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="38" t="s">
@@ -1245,15 +1229,14 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:33" customFormat="1">
+    <row r="8" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="40" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\040_SwaptionVolBootstrap\040_Experimental\</v>
+      <c r="D8" s="40" t="s">
+        <v>41</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="1"/>
@@ -1285,7 +1268,7 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" customFormat="1">
+    <row r="9" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="38" t="s">
@@ -1324,14 +1307,14 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:33" s="1" customFormat="1">
+    <row r="10" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="42"/>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
       <c r="E10" s="44"/>
     </row>
-    <row r="11" spans="1:33" s="1" customFormat="1"/>
-    <row r="12" spans="1:33" s="1" customFormat="1" ht="15.75">
+    <row r="11" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:33" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="47" t="s">
         <v>36</v>
       </c>
@@ -1339,7 +1322,7 @@
       <c r="D12" s="48"/>
       <c r="E12" s="49"/>
     </row>
-    <row r="13" spans="1:33" customFormat="1">
+    <row r="13" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -1374,7 +1357,7 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" customFormat="1">
+    <row r="14" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="11" t="s">
@@ -1413,7 +1396,7 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" customFormat="1">
+    <row r="15" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="11" t="s">
@@ -1452,7 +1435,7 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="1:33" s="1" customFormat="1">
+    <row r="16" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="11" t="s">
         <v>6</v>
@@ -1463,7 +1446,7 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:33" s="1" customFormat="1">
+    <row r="17" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="11" t="s">
         <v>7</v>
@@ -1473,7 +1456,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:33" s="1" customFormat="1">
+    <row r="18" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="11" t="s">
         <v>5</v>
@@ -1484,7 +1467,7 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:33" s="1" customFormat="1">
+    <row r="19" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="11" t="s">
         <v>4</v>
@@ -1492,7 +1475,7 @@
       <c r="D19" s="12"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:33" customFormat="1">
+    <row r="20" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="11" t="s">
@@ -1531,7 +1514,7 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" customFormat="1">
+    <row r="21" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -1566,53 +1549,53 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" s="1" customFormat="1"/>
-    <row r="23" spans="1:33" s="1" customFormat="1"/>
-    <row r="24" spans="1:33" s="1" customFormat="1"/>
-    <row r="25" spans="1:33" s="1" customFormat="1"/>
-    <row r="26" spans="1:33" s="1" customFormat="1"/>
-    <row r="27" spans="1:33" s="1" customFormat="1"/>
-    <row r="28" spans="1:33" s="1" customFormat="1"/>
-    <row r="29" spans="1:33" s="1" customFormat="1"/>
-    <row r="30" spans="1:33" s="1" customFormat="1"/>
-    <row r="31" spans="1:33" s="1" customFormat="1"/>
-    <row r="32" spans="1:33" s="1" customFormat="1"/>
-    <row r="33" s="1" customFormat="1"/>
-    <row r="34" s="1" customFormat="1"/>
-    <row r="35" s="1" customFormat="1"/>
-    <row r="36" s="1" customFormat="1"/>
-    <row r="37" s="1" customFormat="1"/>
-    <row r="38" s="1" customFormat="1"/>
-    <row r="39" s="1" customFormat="1"/>
-    <row r="40" s="1" customFormat="1"/>
-    <row r="41" s="1" customFormat="1"/>
-    <row r="42" s="1" customFormat="1"/>
-    <row r="43" s="1" customFormat="1"/>
-    <row r="44" s="1" customFormat="1"/>
-    <row r="45" s="1" customFormat="1"/>
-    <row r="46" s="1" customFormat="1"/>
-    <row r="47" s="1" customFormat="1"/>
-    <row r="48" s="1" customFormat="1"/>
-    <row r="49" s="1" customFormat="1"/>
-    <row r="50" s="1" customFormat="1"/>
-    <row r="51" s="1" customFormat="1"/>
-    <row r="52" s="1" customFormat="1"/>
-    <row r="53" s="1" customFormat="1"/>
-    <row r="54" s="1" customFormat="1"/>
-    <row r="55" s="1" customFormat="1"/>
-    <row r="56" s="1" customFormat="1"/>
-    <row r="57" s="1" customFormat="1"/>
-    <row r="58" s="1" customFormat="1"/>
-    <row r="59" s="1" customFormat="1"/>
-    <row r="60" s="1" customFormat="1"/>
-    <row r="61" s="1" customFormat="1"/>
-    <row r="62" s="1" customFormat="1"/>
-    <row r="63" s="1" customFormat="1"/>
-    <row r="64" s="1" customFormat="1"/>
-    <row r="65" s="1" customFormat="1"/>
-    <row r="66" s="1" customFormat="1"/>
-    <row r="67" s="1" customFormat="1"/>
-    <row r="68" s="1" customFormat="1"/>
+    <row r="22" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
@@ -1642,7 +1625,7 @@
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="28" customWidth="1"/>
     <col min="2" max="2" width="7" style="28" bestFit="1" customWidth="1"/>
@@ -1654,7 +1637,7 @@
     <col min="18" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="11.25" thickBot="1">
+    <row r="1" spans="1:18" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -1674,7 +1657,7 @@
       <c r="Q1" s="27"/>
       <c r="R1" s="27"/>
     </row>
-    <row r="2" spans="1:18" ht="11.25" thickBot="1">
+    <row r="2" spans="1:18" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
       <c r="B2" s="34" t="s">
         <v>30</v>
@@ -1726,7 +1709,7 @@
       </c>
       <c r="R2" s="27"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="27"/>
       <c r="B3" s="35" t="b">
         <v>0</v>
@@ -1792,7 +1775,7 @@
       </c>
       <c r="R3" s="27"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
       <c r="B4" s="36" t="b">
         <v>0</v>
@@ -1858,7 +1841,7 @@
       </c>
       <c r="R4" s="27"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="27"/>
       <c r="B5" s="36" t="b">
         <v>0</v>
@@ -1924,7 +1907,7 @@
       </c>
       <c r="R5" s="27"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="27"/>
       <c r="B6" s="36" t="b">
         <v>1</v>
@@ -1990,7 +1973,7 @@
       </c>
       <c r="R6" s="27"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="27"/>
       <c r="B7" s="36" t="b">
         <v>1</v>
@@ -2056,7 +2039,7 @@
       </c>
       <c r="R7" s="27"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="27"/>
       <c r="B8" s="36" t="b">
         <v>1</v>
@@ -2122,7 +2105,7 @@
       </c>
       <c r="R8" s="27"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="27"/>
       <c r="B9" s="36" t="b">
         <v>1</v>
@@ -2188,7 +2171,7 @@
       </c>
       <c r="R9" s="27"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="27"/>
       <c r="B10" s="36" t="b">
         <v>1</v>
@@ -2254,7 +2237,7 @@
       </c>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="27"/>
       <c r="B11" s="36" t="b">
         <v>1</v>
@@ -2320,7 +2303,7 @@
       </c>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="27"/>
       <c r="B12" s="36" t="b">
         <v>1</v>
@@ -2386,7 +2369,7 @@
       </c>
       <c r="R12" s="27"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="27"/>
       <c r="B13" s="36" t="b">
         <v>1</v>
@@ -2452,7 +2435,7 @@
       </c>
       <c r="R13" s="27"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="27"/>
       <c r="B14" s="36" t="b">
         <v>1</v>
@@ -2518,7 +2501,7 @@
       </c>
       <c r="R14" s="27"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="27"/>
       <c r="B15" s="45" t="b">
         <v>1</v>
@@ -2584,7 +2567,7 @@
       </c>
       <c r="R15" s="27"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="27"/>
       <c r="B16" s="45" t="b">
         <v>1</v>
@@ -2650,7 +2633,7 @@
       </c>
       <c r="R16" s="27"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="27"/>
       <c r="B17" s="36" t="b">
         <v>1</v>
@@ -2716,7 +2699,7 @@
       </c>
       <c r="R17" s="27"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
       <c r="B18" s="36" t="b">
         <v>1</v>
@@ -2782,7 +2765,7 @@
       </c>
       <c r="R18" s="27"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="27"/>
       <c r="B19" s="36" t="b">
         <v>1</v>
@@ -2848,7 +2831,7 @@
       </c>
       <c r="R19" s="27"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="27"/>
       <c r="B20" s="36" t="b">
         <v>1</v>
@@ -2914,7 +2897,7 @@
       </c>
       <c r="R20" s="27"/>
     </row>
-    <row r="21" spans="1:18" ht="11.25" thickBot="1">
+    <row r="21" spans="1:18" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="37" t="b">
         <v>1</v>
@@ -2980,7 +2963,7 @@
       </c>
       <c r="R21" s="27"/>
     </row>
-    <row r="22" spans="1:18" ht="11.25" thickBot="1">
+    <row r="22" spans="1:18" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="41" t="e">
@@ -3006,7 +2989,7 @@
       <c r="Q22" s="27"/>
       <c r="R22" s="27"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="D23" s="30" t="e">
@@ -3067,7 +3050,7 @@
       </c>
       <c r="R23" s="27"/>
     </row>
-    <row r="24" spans="1:18" ht="11.25" thickBot="1">
+    <row r="24" spans="1:18" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -3129,7 +3112,7 @@
       </c>
       <c r="R24" s="27"/>
     </row>
-    <row r="25" spans="1:18" ht="11.25" thickBot="1">
+    <row r="25" spans="1:18" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -3149,7 +3132,7 @@
       <c r="Q25" s="27"/>
       <c r="R25" s="27"/>
     </row>
-    <row r="26" spans="1:18" ht="11.25" thickBot="1">
+    <row r="26" spans="1:18" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="34" t="s">
         <v>30</v>
@@ -3201,7 +3184,7 @@
       </c>
       <c r="R26" s="27"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="27"/>
       <c r="B27" s="35" t="b">
         <v>0</v>
@@ -3267,7 +3250,7 @@
       </c>
       <c r="R27" s="27"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="27"/>
       <c r="B28" s="36" t="b">
         <v>0</v>
@@ -3333,7 +3316,7 @@
       </c>
       <c r="R28" s="27"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="27"/>
       <c r="B29" s="36" t="b">
         <v>0</v>
@@ -3399,7 +3382,7 @@
       </c>
       <c r="R29" s="27"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="27"/>
       <c r="B30" s="36" t="b">
         <v>1</v>
@@ -3465,7 +3448,7 @@
       </c>
       <c r="R30" s="27"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="27"/>
       <c r="B31" s="36" t="b">
         <v>1</v>
@@ -3531,7 +3514,7 @@
       </c>
       <c r="R31" s="27"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="27"/>
       <c r="B32" s="36" t="b">
         <v>1</v>
@@ -3597,7 +3580,7 @@
       </c>
       <c r="R32" s="27"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="27"/>
       <c r="B33" s="36" t="b">
         <v>1</v>
@@ -3663,7 +3646,7 @@
       </c>
       <c r="R33" s="27"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="27"/>
       <c r="B34" s="36" t="b">
         <v>1</v>
@@ -3729,7 +3712,7 @@
       </c>
       <c r="R34" s="27"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="27"/>
       <c r="B35" s="36" t="b">
         <v>1</v>
@@ -3795,7 +3778,7 @@
       </c>
       <c r="R35" s="27"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="27"/>
       <c r="B36" s="36" t="b">
         <v>1</v>
@@ -3861,7 +3844,7 @@
       </c>
       <c r="R36" s="27"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="27"/>
       <c r="B37" s="36" t="b">
         <v>1</v>
@@ -3927,7 +3910,7 @@
       </c>
       <c r="R37" s="27"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="27"/>
       <c r="B38" s="36" t="b">
         <v>1</v>
@@ -3993,7 +3976,7 @@
       </c>
       <c r="R38" s="27"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="27"/>
       <c r="B39" s="36" t="b">
         <v>1</v>
@@ -4059,7 +4042,7 @@
       </c>
       <c r="R39" s="27"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="27"/>
       <c r="B40" s="36" t="b">
         <v>1</v>
@@ -4125,7 +4108,7 @@
       </c>
       <c r="R40" s="27"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="27"/>
       <c r="B41" s="36" t="b">
         <v>1</v>
@@ -4191,7 +4174,7 @@
       </c>
       <c r="R41" s="27"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="27"/>
       <c r="B42" s="36" t="b">
         <v>1</v>
@@ -4257,7 +4240,7 @@
       </c>
       <c r="R42" s="27"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="27"/>
       <c r="B43" s="36" t="b">
         <v>1</v>
@@ -4323,7 +4306,7 @@
       </c>
       <c r="R43" s="27"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="27"/>
       <c r="B44" s="36" t="b">
         <v>1</v>
@@ -4389,7 +4372,7 @@
       </c>
       <c r="R44" s="27"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="27"/>
       <c r="B45" s="36" t="b">
         <v>1</v>
@@ -4455,7 +4438,7 @@
       </c>
       <c r="R45" s="27"/>
     </row>
-    <row r="46" spans="1:18" ht="11.25" thickBot="1">
+    <row r="46" spans="1:18" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="37" t="b">
         <v>1</v>
@@ -4521,7 +4504,7 @@
       </c>
       <c r="R46" s="27"/>
     </row>
-    <row r="47" spans="1:18" ht="11.25" thickBot="1">
+    <row r="47" spans="1:18" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="27"/>
       <c r="C47" s="41" t="e">
@@ -4547,7 +4530,7 @@
       <c r="Q47" s="27"/>
       <c r="R47" s="27"/>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" s="27"/>
       <c r="B48" s="27"/>
       <c r="D48" s="30" t="e">
@@ -4608,7 +4591,7 @@
       </c>
       <c r="R48" s="27"/>
     </row>
-    <row r="49" spans="1:18" ht="11.25" thickBot="1">
+    <row r="49" spans="1:18" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
@@ -4670,7 +4653,7 @@
       </c>
       <c r="R49" s="27"/>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50" s="27"/>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
@@ -4690,7 +4673,7 @@
       <c r="Q50" s="27"/>
       <c r="R50" s="27"/>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" s="27"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -4710,7 +4693,7 @@
       <c r="Q51" s="27"/>
       <c r="R51" s="27"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" s="27"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
@@ -4730,7 +4713,7 @@
       <c r="Q52" s="27"/>
       <c r="R52" s="27"/>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A53" s="27"/>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
@@ -4750,7 +4733,7 @@
       <c r="Q53" s="27"/>
       <c r="R53" s="27"/>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A54" s="27"/>
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
@@ -4770,7 +4753,7 @@
       <c r="Q54" s="27"/>
       <c r="R54" s="27"/>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A55" s="27"/>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
@@ -4790,7 +4773,7 @@
       <c r="Q55" s="27"/>
       <c r="R55" s="27"/>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A56" s="27"/>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
@@ -4810,7 +4793,7 @@
       <c r="Q56" s="27"/>
       <c r="R56" s="27"/>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A57" s="27"/>
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
@@ -4830,7 +4813,7 @@
       <c r="Q57" s="27"/>
       <c r="R57" s="27"/>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A58" s="27"/>
       <c r="B58" s="27"/>
       <c r="C58" s="27"/>
@@ -4850,7 +4833,7 @@
       <c r="Q58" s="27"/>
       <c r="R58" s="27"/>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A59" s="27"/>
       <c r="B59" s="27"/>
       <c r="C59" s="27"/>
@@ -4870,7 +4853,7 @@
       <c r="Q59" s="27"/>
       <c r="R59" s="27"/>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R60" s="27"/>
     </row>
   </sheetData>

--- a/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/040_Experimental/EUR_010_SwaptionAbcdAtmVolCurves.xlsx
+++ b/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/040_Experimental/EUR_010_SwaptionAbcdAtmVolCurves.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
   <si>
     <t>Trigger</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>EUR</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1235,8 +1232,9 @@
       <c r="C8" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="40" t="s">
-        <v>41</v>
+      <c r="D8" s="40" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\040_SwaptionVolBootstrap\040_Experimental\</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="1"/>
@@ -2967,8 +2965,8 @@
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(D23:Q23,SerializationPath&amp;D22,FileOverwrite,Serialize),"--")</f>
-        <v>#NUM!</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D23:Q23,SerializationPath&amp;D22,FileOverwrite,Serialize),"--")</f>
+        <v>#NAME?</v>
       </c>
       <c r="D22" s="29" t="str">
         <f>Currency&amp;"_010_SwaptionAbcdAtmVolCurves_"&amp;C2&amp;".xml"</f>
@@ -3054,61 +3052,61 @@
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="32" t="str">
+      <c r="D24" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D23)</f>
-        <v/>
-      </c>
-      <c r="E24" s="32" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="E24" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(E23)</f>
-        <v/>
-      </c>
-      <c r="F24" s="32" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="F24" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F23)</f>
-        <v/>
-      </c>
-      <c r="G24" s="32" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="G24" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(G23)</f>
-        <v/>
-      </c>
-      <c r="H24" s="32" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="H24" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H23)</f>
-        <v/>
-      </c>
-      <c r="I24" s="32" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="I24" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I23)</f>
-        <v/>
-      </c>
-      <c r="J24" s="32" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="J24" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(J23)</f>
-        <v/>
-      </c>
-      <c r="K24" s="32" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="K24" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K23)</f>
-        <v/>
-      </c>
-      <c r="L24" s="32" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="L24" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L23)</f>
-        <v/>
-      </c>
-      <c r="M24" s="32" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="M24" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(M23)</f>
-        <v/>
-      </c>
-      <c r="N24" s="32" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="N24" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(N23)</f>
-        <v/>
-      </c>
-      <c r="O24" s="32" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="O24" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(O23)</f>
-        <v/>
-      </c>
-      <c r="P24" s="32" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="P24" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(P23)</f>
-        <v/>
-      </c>
-      <c r="Q24" s="33" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="Q24" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(Q23)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="R24" s="27"/>
     </row>
@@ -4508,8 +4506,8 @@
       <c r="A47" s="27"/>
       <c r="B47" s="27"/>
       <c r="C47" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(D48:Q48,SerializationPath&amp;D47,FileOverwrite,Serialize),"--")</f>
-        <v>#NUM!</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D48:Q48,SerializationPath&amp;D47,FileOverwrite,Serialize),"--")</f>
+        <v>#NAME?</v>
       </c>
       <c r="D47" s="29" t="str">
         <f>Currency&amp;"_010_SwaptionAbcdAtmVolCurves_"&amp;C26&amp;".xml"</f>
@@ -4595,61 +4593,61 @@
       <c r="A49" s="27"/>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
-      <c r="D49" s="32" t="str">
+      <c r="D49" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D48)</f>
-        <v/>
-      </c>
-      <c r="E49" s="32" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="E49" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(E48)</f>
-        <v/>
-      </c>
-      <c r="F49" s="32" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="F49" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F48)</f>
-        <v/>
-      </c>
-      <c r="G49" s="32" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="G49" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(G48)</f>
-        <v/>
-      </c>
-      <c r="H49" s="32" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="H49" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H48)</f>
-        <v/>
-      </c>
-      <c r="I49" s="32" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="I49" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I48)</f>
-        <v/>
-      </c>
-      <c r="J49" s="32" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="J49" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(J48)</f>
-        <v/>
-      </c>
-      <c r="K49" s="32" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="K49" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K48)</f>
-        <v/>
-      </c>
-      <c r="L49" s="32" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="L49" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L48)</f>
-        <v/>
-      </c>
-      <c r="M49" s="32" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="M49" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(M48)</f>
-        <v/>
-      </c>
-      <c r="N49" s="32" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="N49" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(N48)</f>
-        <v/>
-      </c>
-      <c r="O49" s="32" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="O49" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(O48)</f>
-        <v/>
-      </c>
-      <c r="P49" s="32" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="P49" s="32" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(P48)</f>
-        <v/>
-      </c>
-      <c r="Q49" s="33" t="str">
+        <v>#NAME?</v>
+      </c>
+      <c r="Q49" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(Q48)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="R49" s="27"/>
     </row>
